--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2338210.327022483</v>
+        <v>2335875.215820503</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9488295.576674921</v>
+        <v>9488295.57667492</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>399.8071423251172</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>104.1527721870136</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>83.96419053910823</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.87283440220839</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -914,7 +914,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>56.70882917873416</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>8.003195115249806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>96.97633795874938</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>128.253870317768</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>14.59479991660671</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22.61263105777435</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,13 +1850,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>55.52079624060473</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>66.2562870115476</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>41.02686156550273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>194.4027115485082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>41.74133133758761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,10 +3193,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>132.6315337216692</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>146.9393756113377</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>38.61213096654825</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>125.285163539206</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>230.7818758741516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1283.162304328173</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>914.1997873877617</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>914.1997873877617</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>528.4115347895174</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>521.466034040314</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,25 +4328,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1669.762144392295</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.762144392295</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4413,7 +4413,7 @@
         <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
         <v>1456.147065963532</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>918.7469765594642</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
@@ -4513,25 +4513,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1428.657893199156</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1428.657893199156</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1139.539555702994</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1139.539555702994</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>1139.539555702994</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X4" t="n">
-        <v>1139.539555702994</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>918.7469765594642</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1550.959102576163</v>
+        <v>1589.988596769088</v>
       </c>
       <c r="C5" t="n">
-        <v>1181.996585635751</v>
+        <v>1221.026079828677</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.996585635751</v>
+        <v>1221.026079828677</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>835.2378272304325</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>828.292326481229</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>412.5875762055178</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>108.5284322030881</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.31341879663</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y5" t="n">
-        <v>1585.174086820818</v>
+        <v>1589.988596769088</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100998</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2102.578639884741</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>376.0561848661677</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C7" t="n">
-        <v>376.0561848661677</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>376.0561848661677</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>376.0561848661677</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1538.490223146467</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1052.743137810166</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.255484944676</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="W7" t="n">
-        <v>824.8383149077151</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="X7" t="n">
-        <v>596.8487640096978</v>
+        <v>570.069098706262</v>
       </c>
       <c r="Y7" t="n">
-        <v>376.0561848661677</v>
+        <v>349.2765195627319</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2373.501580131336</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,7 +5036,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5115,16 +5115,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
         <v>680.0291294438176</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5209,40 +5209,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400708</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576776</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>365.9405071576776</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>198.7444078725576</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038333</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5598,22 +5598,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925226</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101294</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>149.8982754122191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219839</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3439841395908</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>302.4540366416804</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921476</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273905</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.560501433898</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1872.470231673185</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273905</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684978</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,19 +6932,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7190,34 +7190,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718132</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219839</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395908</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>302.4540366416804</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,22 +7728,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2253.988764961266</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692392</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013353</v>
       </c>
       <c r="M3" t="n">
-        <v>114.3555089013353</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>186.5911984019043</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>98.24448441976841</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-5.320385411508442e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.091083191524911e-12</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.091083191524911e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>117.6820817884495</v>
+        <v>18.49466557218919</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>84.77391660561912</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.26785128072125</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>92.12028678808278</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>48.39475227997539</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.89260457059956</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>110.0033420516641</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>40.23897475306289</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>55.74112246243945</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815685.8152001788</v>
+        <v>815685.8152001787</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815685.8152001787</v>
+        <v>815685.8152001788</v>
       </c>
     </row>
   </sheetData>
@@ -26317,10 +26317,10 @@
         <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675042</v>
@@ -26329,31 +26329,31 @@
         <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,37 +26421,37 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="F4" t="n">
         <v>9337.200356756583</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.200356756546</v>
-      </c>
       <c r="G4" t="n">
-        <v>9337.200356756608</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756546</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756599</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.200356756597</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756613</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
@@ -26525,43 +26525,43 @@
         <v>386117.2812662655</v>
       </c>
       <c r="D6" t="n">
-        <v>226696.0112683731</v>
+        <v>226696.0112683733</v>
       </c>
       <c r="E6" t="n">
-        <v>169487.7577794854</v>
+        <v>169453.0198540499</v>
       </c>
       <c r="F6" t="n">
-        <v>494900.2195868403</v>
+        <v>494865.4816614048</v>
       </c>
       <c r="G6" t="n">
-        <v>494900.2195868404</v>
+        <v>494865.4816614045</v>
       </c>
       <c r="H6" t="n">
-        <v>494900.2195868408</v>
+        <v>494865.4816614047</v>
       </c>
       <c r="I6" t="n">
-        <v>494900.2195868405</v>
+        <v>494865.4816614049</v>
       </c>
       <c r="J6" t="n">
-        <v>327295.0417768581</v>
+        <v>327260.3038514224</v>
       </c>
       <c r="K6" t="n">
-        <v>494900.2195868407</v>
+        <v>494865.4816614048</v>
       </c>
       <c r="L6" t="n">
-        <v>446606.2495786497</v>
+        <v>446571.5116532142</v>
       </c>
       <c r="M6" t="n">
-        <v>409845.1916513287</v>
+        <v>409810.453725893</v>
       </c>
       <c r="N6" t="n">
-        <v>494900.2195868403</v>
+        <v>494865.4816614047</v>
       </c>
       <c r="O6" t="n">
-        <v>494900.2195868407</v>
+        <v>494865.4816614047</v>
       </c>
       <c r="P6" t="n">
-        <v>494900.2195868408</v>
+        <v>494865.4816614048</v>
       </c>
     </row>
   </sheetData>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26969,10 +26969,10 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292.3234674802255</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>11.7405604478368</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>90.50968817472392</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>141.7454648499289</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.8610072612722</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>9.001083493736331</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>137.4178529076814</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4.581234460824248</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>226.4291713029149</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>355.1363007618623</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,16 +28059,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-4.137378184557301e-13</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31847,7 +31847,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>732.4825987614915</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32236,7 +32236,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
         <v>867.8464071162563</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>336.3457189021232</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>548.8125296967487</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>362.5355639238077</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
-        <v>467.7715423565655</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>618.3341264639744</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>604.2458225991924</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>513.0745614164387</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34448,25 +34448,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34781,10 +34781,10 @@
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>412.0358695391854</v>
       </c>
       <c r="M3" t="n">
-        <v>481.2868411833758</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35027,10 +35027,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0158803980272</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>347.9240135433006</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>590.3485648394733</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096339</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
         <v>632.079992146269</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>205.0040068187898</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>71.39556506237767</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>414.8381222824185</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>222.5537898377862</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
-        <v>325.6375084345472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>476.2000925419561</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>472.904110515859</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>374.5201816365645</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38096,25 +38096,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
